--- a/Documentacion/Cronograma proyecto.xlsx
+++ b/Documentacion/Cronograma proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\juego\Proyecto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Proyecto Final\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E435F-6B37-425F-8EFF-88F8DBBEC80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDA8021-3164-4E87-96B6-2668B779898D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Vacaciones</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>Ana Cristina Henao Guerra 1037670380</t>
+  </si>
+  <si>
+    <t>creacion de clases necesarias para el desarrollo del juego.</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Barco</t>
+  </si>
+  <si>
+    <t>juagdor</t>
+  </si>
+  <si>
+    <t>humano</t>
+  </si>
+  <si>
+    <t>maquina</t>
+  </si>
+  <si>
+    <t>y creacion de clases necesarias para la interaccion de las clases anteriormente mencionadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creacion de niveles e interfaz grafica </t>
+  </si>
+  <si>
+    <t>planeación de trabajo, diagrama de clases.</t>
   </si>
 </sst>
 </file>
@@ -135,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +236,18 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -377,7 +416,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -472,6 +511,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -873,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU22"/>
+  <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,30 +1472,30 @@
       <c r="R15" s="14"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="19"/>
@@ -1472,30 +1521,30 @@
       <c r="R16" s="14"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
       <c r="AI16" s="20"/>
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
       <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
       <c r="AS16" s="20"/>
       <c r="AT16" s="20"/>
       <c r="AU16" s="21"/>
@@ -1596,7 +1645,10 @@
       <c r="AU18" s="10"/>
     </row>
     <row r="19" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1642,7 +1694,10 @@
       <c r="AU19" s="10"/>
     </row>
     <row r="20" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1688,7 +1743,9 @@
       <c r="AU20" s="10"/>
     </row>
     <row r="21" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1734,7 +1791,9 @@
       <c r="AU21" s="10"/>
     </row>
     <row r="22" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -1779,6 +1838,32 @@
       <c r="AT22" s="23"/>
       <c r="AU22" s="24"/>
     </row>
+    <row r="23" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D23" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D24" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D25" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D26" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C28" s="54"/>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="R8:AU8"/>
